--- a/backtest/bt_report/bs_voq_rs_smae_style_28/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_smae_style_28/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>399043961.4215978</v>
+        <v>316789507.4270991</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>895.5530978022143</v>
+        <v>3205796.961099152</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>2.990439614215978</v>
+        <v>2.167895074270991</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1904978451235022</v>
+        <v>0.1563708074048091</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>3.990439614215978</v>
+        <v>3.167895074270991</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>102.1739939635976</v>
+        <v>91.01282269964061</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.1398771915001721</v>
+        <v>0.2159253284936286</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1356799436330383</v>
+        <v>0.0941451900246397</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.0362581625614</v>
+        <v>1.13370072675935</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.09237309831231662</v>
+        <v>0.06619314998448093</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.522082204174153</v>
+        <v>1.612439812531276</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.1502206399853933</v>
+        <v>0.1068356363831139</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01344828947103797</v>
+        <v>0.009224197185723319</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.08889890887016563</v>
+        <v>-0.1988828724342495</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.01078882745546572</v>
+        <v>-0.02755354351786732</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1343057602272914</v>
+        <v>0.1049549799747699</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.2475074061276771</v>
+        <v>0.1508237643205917</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.505970300472927</v>
+        <v>1.749466190109132</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.1709371923876707</v>
+        <v>0.03874373660078036</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5773985191032306</v>
+        <v>0.5386313061374285</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2613799586812151</v>
+        <v>0.2790793686476541</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1280074106927207</v>
+        <v>0.1006028603238279</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.2954090115421266</v>
+        <v>0.1715436435657514</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9928068410106239</v>
+        <v>1.072047746060004</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.524843204583271</v>
+        <v>1.634970975080767</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.493245802320502</v>
+        <v>1.665412447814882</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03268550008876737</v>
+        <v>0.03613571465506876</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1251021962638809</v>
+        <v>0.09843389405894087</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.3356510000000004</v>
+        <v>0.3235060000000017</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.2031350804320963</v>
+        <v>0.1971013395328848</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.299002679597586</v>
+        <v>3.133284514292092</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>4.35869971069061</v>
+        <v>4.361561814753093</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.9225868134714835</v>
+        <v>0.2889212440291159</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.1165605713915829</v>
+        <v>-0.441469884998291</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.668604652677344</v>
+        <v>2.794404652864821</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.246703529998797</v>
+        <v>2.613869141292124</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.01156078593250111</v>
+        <v>-0.04640555251055867</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.234726422937973</v>
+        <v>0.193416184965406</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.1083366385294449</v>
+        <v>-0.4712260658268452</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.1795978404150056</v>
+        <v>-0.2010879307645275</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.00837162135009779</v>
+        <v>0.1581428286896682</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.09978809757767826</v>
+        <v>0.2678164686609262</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.6378628269216129</v>
+        <v>1.68598776651085</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.7628777072798028</v>
+        <v>2.036840277170453</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.5686274509803921</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.05549045953708383</v>
+        <v>-0.01965352220927308</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2438060887713228</v>
+        <v>0.2847479758225149</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.573671851535786</v>
+        <v>-0.2551109080523545</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.07043789447209488</v>
+        <v>0.1950692221013132</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.5686274509803921</v>
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.1050606819359818</v>
+        <v>0.1296556884525427</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.2686432244182623</v>
+        <v>-0.253186290269362</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.058085910720253</v>
+        <v>1.364808318311255</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>-0.0829427280575145</v>
+        <v>0.3696991633663388</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.2626634009865164</v>
+        <v>0.2980886011033212</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.2781382345314844</v>
+        <v>-0.2669709571804385</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.662547744837951</v>
+        <v>2.627250283400642</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.1677000472560523</v>
+        <v>1.987060902644896</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.06598256857261556</v>
+        <v>0.1151924902459817</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.09426183744874633</v>
+        <v>-0.05834798493488842</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.594182454859689</v>
+        <v>1.224763140733214</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.3225282153172203</v>
+        <v>1.331371497291764</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.1097906954171819</v>
+        <v>0.0488485625034139</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2684635930238737</v>
+        <v>0.1957169377990583</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>2.593302423444511</v>
+        <v>2.242072954236674</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>3.538393481697997</v>
+        <v>2.914604487293041</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.01141999999999999</v>
+        <v>-0.01276199999999994</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.0006180582249278865</v>
+        <v>-0.009799055546889091</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01896415778227789</v>
+        <v>0.04789558535297944</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.01808772182516272</v>
+        <v>0.04719709874705291</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.003474437855274237</v>
+        <v>-0.0112208722953423</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0279394097829051</v>
+        <v>0.05313963661595755</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.003822308834552923</v>
+        <v>-0.01600091669121062</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.05522738833284246</v>
+        <v>0.08498008073239638</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2102267321592153</v>
+        <v>0.1097689410328397</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.03823977970293124</v>
+        <v>-0.00835356998759329</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.109496830082455</v>
+        <v>0.03932111699493368</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1327944272971513</v>
+        <v>0.07026245970659484</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1321384506372261</v>
+        <v>0.08546550138057496</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1513967632710427</v>
+        <v>0.06968327790644113</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.04193606172498698</v>
+        <v>-0.01206068096478374</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.001160043326800198</v>
+        <v>0.003463408196692885</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.05241788666941094</v>
+        <v>0.004100684875667726</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.01299673892987174</v>
+        <v>0.004714515492413085</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1829720365596887</v>
+        <v>0.006679065674038531</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.06611264059110522</v>
+        <v>-0.003310051446719697</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02896462169436842</v>
+        <v>0.002894817136799954</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.06921790331028643</v>
+        <v>-0.01715228662959867</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.00430975332195338</v>
+        <v>0.002482949479165386</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.04148144911106089</v>
+        <v>0.01111674335642987</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01153927310769576</v>
+        <v>-0.01102805970992393</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.001923690743345308</v>
+        <v>0.001367849061813198</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02302489396832441</v>
+        <v>0.03603835915961606</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.007359002233982448</v>
+        <v>-0.04411267114528183</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001756736991489039</v>
+        <v>-0.0213448125871819</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.002510522332284326</v>
+        <v>-0.01891002808978381</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.006043701702344473</v>
+        <v>0.001038521525264624</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.001707064186082685</v>
+        <v>0.06956306249508493</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.005200496808331567</v>
+        <v>-0.05061294285522555</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0004790762653170688</v>
+        <v>0.0105161759896526</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.002408410693091723</v>
+        <v>0.01103210229225593</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.0001622439158530664</v>
+        <v>-0.03452340409657417</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.002557382020084598</v>
+        <v>0.002710961069975815</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.001151823681652009</v>
+        <v>0.03733870661991978</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.003666160168878108</v>
+        <v>0.04156024212967724</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.00113291708367802</v>
+        <v>0.01683398642880629</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.001717165408426924</v>
+        <v>-0.009338376558281625</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.002622995947807238</v>
+        <v>0.006249054190258674</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.002341962388980656</v>
+        <v>0.04974325913348232</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.004028646423049453</v>
+        <v>0.0189637462562311</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001066514567887866</v>
+        <v>-0.0004403608199841091</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02079768951895056</v>
+        <v>0.05000987267434809</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.0219022634839543</v>
+        <v>-0.03442816369983714</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.04080573701786916</v>
+        <v>0.02546830008899947</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.009325305517206228</v>
+        <v>-0.007220942776173023</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.001114632579226171</v>
+        <v>0.001533989199851593</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.001494378453049339</v>
+        <v>-0.003688668947096074</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01083698058880556</v>
+        <v>-0.001601214593677014</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.0356981653488907</v>
+        <v>-0.02581847369657142</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.006255393266655918</v>
+        <v>-0.002318154674698425</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.01476923717775191</v>
+        <v>-0.02070527303067271</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01997599806813766</v>
+        <v>-0.002708366324713718</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.00281084265130116</v>
+        <v>0.00437158291651274</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.01387376155198861</v>
+        <v>0.02138594155480322</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.05100653616104589</v>
+        <v>0.06957528916595046</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.02374072009428563</v>
+        <v>0.007875260629495617</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-8.645690502473435e-05</v>
+        <v>-0.006241637371342867</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.02654873633066424</v>
+        <v>-0.01287540056251935</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.01416680009521154</v>
+        <v>0.01477326045371896</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.009386228614495007</v>
+        <v>0.01482444566403474</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01461382637475794</v>
+        <v>-0.03360788641183754</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.0102138943257597</v>
+        <v>0.004894410288284856</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.007277035419493538</v>
+        <v>0.01750638958659079</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.002641568727470567</v>
+        <v>-0.002634030371892804</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.01122775061152459</v>
+        <v>0.03052816772711164</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.01892851701661158</v>
+        <v>0.05887424931581764</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.07842401776644614</v>
+        <v>0.003803523974241552</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.01531177119450666</v>
+        <v>0.006971731592166686</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0199020448661773</v>
+        <v>0.01638551432943225</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.008286200226998774</v>
+        <v>-0.02324249401468503</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.05543394014104597</v>
+        <v>0.1018223988799114</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.08461525249110879</v>
+        <v>0.06032861110940524</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02431749078513989</v>
+        <v>-4.90334238073542e-05</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.0117140929563242</v>
+        <v>-0.01199833355405877</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.00997944924471672</v>
+        <v>-0.007981263589993737</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.03164767144914404</v>
+        <v>0.03123880958618397</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02338079130738446</v>
+        <v>0.03462066367859662</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.01611009210213821</v>
+        <v>0.03486597663318647</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03660191092837728</v>
+        <v>-0.008461178656636537</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.0005536050500409839</v>
+        <v>0.003582112968077089</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.04995549093004725</v>
+        <v>0.03112252562798479</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.03849472377852692</v>
+        <v>0.02975371047724074</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.02477405328339577</v>
+        <v>0.02675313448661276</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.04681437321691939</v>
+        <v>-0.01426411636772174</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0003538115880825643</v>
+        <v>0.003313354007736802</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.004332303902170098</v>
+        <v>0.003824160447140734</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01040783612898033</v>
+        <v>0.001422137240715493</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.008824191402733161</v>
+        <v>0.02309866162265206</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.002209991971990455</v>
+        <v>-0.02342881050796441</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.001258458439862165</v>
+        <v>-0.01381129039467244</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.0009735059357127707</v>
+        <v>0.0009312975049018402</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.0004250773373695171</v>
+        <v>0.001220226375806543</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01562607753586587</v>
+        <v>0.002652550106329921</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02810839853626113</v>
+        <v>0.007165457722596358</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.1016151496492492</v>
+        <v>0.05545983036183411</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.004704807793274757</v>
+        <v>-0.004306016322002004</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.05337775379092347</v>
+        <v>0.0519932007032573</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.03134459723581318</v>
+        <v>-0.04009276657654881</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.04682435008300945</v>
+        <v>-0.01785224753693249</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05993319028292632</v>
+        <v>0.09100589582501106</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.06225089296265163</v>
+        <v>-0.06918661631345269</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.05159499994761063</v>
+        <v>-0.02738881289413353</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01284813925210382</v>
+        <v>0.0007715686559639501</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.01292850835649628</v>
+        <v>0.04153836758056095</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2791040927379353</v>
+        <v>0.1723915604711177</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1644493169081944</v>
+        <v>-0.1389182156798427</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.03423689536176078</v>
+        <v>-0.09775879165850154</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.06837230197122857</v>
+        <v>-0.1225747860911236</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08021588952601855</v>
+        <v>-0.1203116545897946</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.07741447263290335</v>
+        <v>-0.1486106657934205</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1542026758765909</v>
+        <v>0.1795736247119157</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.08934805631406584</v>
+        <v>0.09183814723541084</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2873619772612956</v>
+        <v>0.2222986557139333</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.08168509473745922</v>
+        <v>-0.06519869048557447</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.007414739774323831</v>
+        <v>-0.1684060620498722</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.01610719701443764</v>
+        <v>-0.09024254693379874</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04601448406359554</v>
+        <v>-0.01735764513991211</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2227563376186266</v>
+        <v>0.2872535840655683</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04089242131766047</v>
+        <v>0.04750445911223222</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1392390737668477</v>
+        <v>-0.1654371861782648</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.02828527969904115</v>
+        <v>0.02833064573668587</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01682872534661839</v>
+        <v>-0.01736567862925309</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.0137518732520453</v>
+        <v>0.0003538669058513744</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.05295230458230571</v>
+        <v>0.002797500915276085</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03232940139610196</v>
+        <v>-0.05453427432031821</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.0203052092376752</v>
+        <v>-0.001059594680199227</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>6.496433062497253e-05</v>
+        <v>-0.004789680219808967</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.01366306873944567</v>
+        <v>0.0571657381456443</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.1022841964891636</v>
+        <v>0.05287782211688086</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03735601825920543</v>
+        <v>0.04790805669420362</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01967324489581068</v>
+        <v>-0.01091698321354206</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009132053685710906</v>
+        <v>-0.02494123411235694</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03150427607365347</v>
+        <v>0.03215615551082651</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04624425099818863</v>
+        <v>0.0863068856573197</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.02808842273234302</v>
+        <v>0.008641149593481279</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04299074838078232</v>
+        <v>0.05922328944232769</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.0648211581867042</v>
+        <v>-0.07148417412685404</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.007752982966964916</v>
+        <v>-0.003368090213704655</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.001095910629253738</v>
+        <v>0.04629731107593171</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.04869555140469117</v>
+        <v>0.07382443432067731</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007774366602362193</v>
+        <v>0.007244817435393625</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02741473994240051</v>
+        <v>0.05676965578300264</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03955234125774088</v>
+        <v>-0.05140131894027433</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.04326730876314866</v>
+        <v>-0.05988020362845026</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.03865812479692265</v>
+        <v>0.04076653968963329</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.0340377379487915</v>
+        <v>0.03463175526905404</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.07419225293082143</v>
+        <v>0.07189168955523995</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.01376506491073282</v>
+        <v>0.02281424212210048</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04180558416109448</v>
+        <v>0.05228683308799531</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.008164291119418854</v>
+        <v>0.01208704830274487</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.07774876694052302</v>
+        <v>0.07144878950285327</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.06408698146410441</v>
+        <v>-0.04938061454148512</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.06326913437253046</v>
+        <v>0.06452290231151725</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.02940850165644426</v>
+        <v>0.0370468938883346</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.1648463307797748</v>
+        <v>-0.1495942936131959</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.07928592576785853</v>
+        <v>-0.0960273346260988</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03996091467880047</v>
+        <v>0.03143737637418242</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.05419334960954747</v>
+        <v>0.06760731035468415</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.008078306708979466</v>
+        <v>-0.007683000642731197</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03122657040320109</v>
+        <v>-0.02583770108697392</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.04241539072427214</v>
+        <v>-0.06053496079182386</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.002851578027632584</v>
+        <v>-0.006663878068288054</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02099845780703191</v>
+        <v>-0.01102546731061871</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.004440839550751807</v>
+        <v>0.0004169481106242046</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.06595292572753453</v>
+        <v>-0.04686751971080272</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.05263945074711018</v>
+        <v>-0.01339693195461744</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.003045060712895342</v>
+        <v>-0.07828311600760751</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.07947894387196874</v>
+        <v>0.09927600015785765</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08189315479302028</v>
+        <v>-0.08527132237823531</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.01932418040795203</v>
+        <v>-0.03341602145790079</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.09890486719231073</v>
+        <v>-0.05832663906030899</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.05995242311657512</v>
+        <v>-0.08427584640068264</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.004029682095491816</v>
+        <v>0.01885326793036168</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.04131573910776631</v>
+        <v>0.04096880100091238</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04499650720284964</v>
+        <v>-0.04313699566992013</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.0369055066961157</v>
+        <v>0.0365282526310442</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.0960656313415984</v>
+        <v>-0.0856818825453054</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.04083532873614715</v>
+        <v>-0.02395932194121209</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03202355882322916</v>
+        <v>0.05918133405555781</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.04348978197393927</v>
+        <v>0.04661667336017006</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.06541917268435204</v>
+        <v>-0.08379580396720965</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03248934438345552</v>
+        <v>-0.04090597516158867</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02728141225020209</v>
+        <v>-0.02582696832253262</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-0.04331356814426024</v>
+        <v>-0.01229258204124817</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.06580843783752188</v>
+        <v>0.06838186251356682</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.009510803295532888</v>
+        <v>-0.01002861216276929</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02355942971328584</v>
+        <v>-0.03214666964462509</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03412110377568078</v>
+        <v>-0.01975477998277797</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.04665809531444087</v>
+        <v>0.02577767570462042</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1345348710366787</v>
+        <v>0.1204834118597975</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.005264238143374955</v>
+        <v>0.005220861143878874</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.07054429652876193</v>
+        <v>0.07138537510573961</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1132234279337589</v>
+        <v>0.1339468240769335</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01291119867505008</v>
+        <v>-0.03348918159364955</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.05971769406179628</v>
+        <v>-0.1011946165409802</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.00549162314101892</v>
+        <v>0.005890414612291561</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
